--- a/biology/Botanique/Brassica_parachinensis/Brassica_parachinensis.xlsx
+++ b/biology/Botanique/Brassica_parachinensis/Brassica_parachinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brassica rapa subsp. chinensis var. parachinensis, le chou cantonnais[réf. nécessaire] ou choy (choï) sum[réf. nécessaire], est une variété de plantes à fleurs de la famille des Brassicacées. C'est une plante herbacée, cultivée comme plante potagère pour ses tiges et ses feuilles consommées comme légume en Chine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brassica rapa subsp. chinensis var. parachinensis, le chou cantonnais[réf. nécessaire] ou choy (choï) sum[réf. nécessaire], est une variété de plantes à fleurs de la famille des Brassicacées. C'est une plante herbacée, cultivée comme plante potagère pour ses tiges et ses feuilles consommées comme légume en Chine.
 </t>
         </is>
       </c>
@@ -511,23 +523,25 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En anglais[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En anglais :
 caisin
 choisum
 false pak-choi
 flowering white cabbage
 mock pak-choi
-En allemand[1] :
+En allemand :
 Choisum
 Tsoi-sum
-En indonésien[1] :
+En indonésien :
 sawi hijau
 sawi kembang
-En malaisien[1] :
+En malaisien :
 sawi bunga
-En chinois[1] :
+En chinois :
 cai xin</t>
         </is>
       </c>
